--- a/Back_end_python/db/migracion.xlsx
+++ b/Back_end_python/db/migracion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onleonel\Escritorio\geoportal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenin\Documents\GitHub\Proyecto_python\Back_end_python\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217E76CE-448F-4ED4-822F-EF0FEC885CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DF0A7C-D7DA-4876-AD61-43965692F14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lugar de nacimiento" sheetId="1" r:id="rId1"/>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Censo de Población y Vivienda El Salvador 2024</t>
   </si>
   <si>
-    <t>Distribución población por departamento según lugar de nacimiento</t>
-  </si>
-  <si>
     <t>Departamento</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fuente: Banco Central de Reserva de El Salvador </t>
-  </si>
-  <si>
-    <t>* Una persona podría tener dos o más idiomas</t>
   </si>
   <si>
     <t>Distribución departamental de población con departamento de nacimiento diferente al de residencia actual</t>
@@ -127,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,13 +138,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Museo Sans 300"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Museo Sans 300"/>
@@ -160,13 +147,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Museo Sans 300"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Museo Sans 100"/>
       <family val="3"/>
     </font>
     <font>
@@ -287,79 +267,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -696,395 +661,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G21"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="1:6" ht="40.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:6" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickTop="1">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B3" s="3">
+        <v>310765</v>
+      </c>
+      <c r="C3" s="4">
+        <v>32255</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1920</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2409</v>
+      </c>
+      <c r="F3" s="4">
+        <v>347349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
-        <v>310765</v>
-      </c>
-      <c r="D5" s="4">
-        <v>32255</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1920</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2409</v>
-      </c>
-      <c r="G5" s="4">
-        <v>347349</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B4" s="3">
+        <v>466802</v>
+      </c>
+      <c r="C4" s="4">
+        <v>64339</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4099</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7489</v>
+      </c>
+      <c r="F4" s="4">
+        <v>542729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
-        <v>466802</v>
-      </c>
-      <c r="D6" s="4">
-        <v>64339</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4099</v>
-      </c>
-      <c r="F6" s="3">
-        <v>7489</v>
-      </c>
-      <c r="G6" s="4">
-        <v>542729</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B5" s="3">
+        <v>401580</v>
+      </c>
+      <c r="C5" s="4">
+        <v>58573</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2028</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5461</v>
+      </c>
+      <c r="F5" s="4">
+        <v>467642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
-        <v>401580</v>
-      </c>
-      <c r="D7" s="4">
-        <v>58573</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2028</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5461</v>
-      </c>
-      <c r="G7" s="4">
-        <v>467642</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B6" s="6">
+        <v>159654</v>
+      </c>
+      <c r="C6" s="4">
+        <v>19859</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2591</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2284</v>
+      </c>
+      <c r="F6" s="4">
+        <v>184388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6">
-        <v>159654</v>
-      </c>
-      <c r="D8" s="4">
-        <v>19859</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2591</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2284</v>
-      </c>
-      <c r="G8" s="4">
-        <v>184388</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B7" s="3">
+        <v>503705</v>
+      </c>
+      <c r="C7" s="4">
+        <v>220899</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8213</v>
+      </c>
+      <c r="E7" s="3">
+        <v>12647</v>
+      </c>
+      <c r="F7" s="4">
+        <v>745464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
-        <v>503705</v>
-      </c>
-      <c r="D9" s="4">
-        <v>220899</v>
-      </c>
-      <c r="E9" s="5">
-        <v>8213</v>
-      </c>
-      <c r="F9" s="3">
-        <v>12647</v>
-      </c>
-      <c r="G9" s="4">
-        <v>745464</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B8" s="3">
+        <v>1129061</v>
+      </c>
+      <c r="C8" s="4">
+        <v>359800</v>
+      </c>
+      <c r="D8" s="5">
+        <v>12292</v>
+      </c>
+      <c r="E8" s="3">
+        <v>38443</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1539596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
-        <v>1129061</v>
-      </c>
-      <c r="D10" s="4">
-        <v>359800</v>
-      </c>
-      <c r="E10" s="5">
-        <v>12292</v>
-      </c>
-      <c r="F10" s="3">
-        <v>38443</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1539596</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B9" s="3">
+        <v>201429</v>
+      </c>
+      <c r="C9" s="4">
+        <v>39259</v>
+      </c>
+      <c r="D9" s="5">
+        <v>923</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2438</v>
+      </c>
+      <c r="F9" s="4">
+        <v>244049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3">
-        <v>201429</v>
-      </c>
-      <c r="D11" s="4">
-        <v>39259</v>
-      </c>
-      <c r="E11" s="5">
-        <v>923</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2438</v>
-      </c>
-      <c r="G11" s="4">
-        <v>244049</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B10" s="3">
+        <v>258490</v>
+      </c>
+      <c r="C10" s="4">
+        <v>51482</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1064</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4921</v>
+      </c>
+      <c r="F10" s="4">
+        <v>315957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
-        <v>258490</v>
-      </c>
-      <c r="D12" s="4">
-        <v>51482</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1064</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4921</v>
-      </c>
-      <c r="G12" s="4">
-        <v>315957</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B11" s="3">
+        <v>126990</v>
+      </c>
+      <c r="C11" s="4">
+        <v>12264</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1216</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1060</v>
+      </c>
+      <c r="F11" s="4">
+        <v>141530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3">
-        <v>126990</v>
-      </c>
-      <c r="D13" s="4">
-        <v>12264</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1216</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1060</v>
-      </c>
-      <c r="G13" s="4">
-        <v>141530</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B12" s="3">
+        <v>128569</v>
+      </c>
+      <c r="C12" s="4">
+        <v>26425</v>
+      </c>
+      <c r="D12" s="5">
+        <v>824</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2271</v>
+      </c>
+      <c r="F12" s="4">
+        <v>158089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3">
-        <v>128569</v>
-      </c>
-      <c r="D14" s="4">
-        <v>26425</v>
-      </c>
-      <c r="E14" s="5">
-        <v>824</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2271</v>
-      </c>
-      <c r="G14" s="4">
-        <v>158089</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B13" s="3">
+        <v>280766</v>
+      </c>
+      <c r="C13" s="4">
+        <v>37925</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1762</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3376</v>
+      </c>
+      <c r="F13" s="4">
+        <v>323829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3">
-        <v>280766</v>
-      </c>
-      <c r="D15" s="4">
-        <v>37925</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1762</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3376</v>
-      </c>
-      <c r="G15" s="4">
-        <v>323829</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B14" s="3">
+        <v>370360</v>
+      </c>
+      <c r="C14" s="4">
+        <v>62821</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4631</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3429</v>
+      </c>
+      <c r="F14" s="4">
+        <v>441241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3">
-        <v>370360</v>
-      </c>
-      <c r="D16" s="4">
-        <v>62821</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4631</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3429</v>
-      </c>
-      <c r="G16" s="4">
-        <v>441241</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B15" s="3">
         <v>154527</v>
       </c>
-      <c r="D17" s="4">
+      <c r="C15" s="4">
         <v>11122</v>
       </c>
-      <c r="E17" s="5">
+      <c r="D15" s="5">
         <v>2550</v>
       </c>
-      <c r="F17" s="3">
+      <c r="E15" s="3">
         <v>905</v>
       </c>
-      <c r="G17" s="4">
+      <c r="F15" s="4">
         <v>169104</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3">
+    <row r="16" spans="1:6" ht="15.75">
+      <c r="A16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3">
         <v>194263</v>
       </c>
-      <c r="D18" s="4">
+      <c r="C16" s="4">
         <v>20876</v>
       </c>
-      <c r="E18" s="5">
+      <c r="D16" s="5">
         <v>5675</v>
       </c>
-      <c r="F18" s="3">
+      <c r="E16" s="3">
         <v>1613</v>
       </c>
-      <c r="G18" s="4">
+      <c r="F16" s="4">
         <v>222427</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="7">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7">
         <v>4686961</v>
       </c>
-      <c r="D19" s="8">
+      <c r="C17" s="8">
         <v>1017899</v>
       </c>
-      <c r="E19" s="9">
+      <c r="D17" s="9">
         <v>49788</v>
       </c>
-      <c r="F19" s="7">
+      <c r="E17" s="7">
         <v>88746</v>
       </c>
-      <c r="G19" s="8">
+      <c r="F17" s="8">
         <v>5843394</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-    </row>
+    <row r="18" spans="1:6" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1093,11 +1010,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19705A70-DD8E-4B33-9AAA-9B9C51E66D0C}">
   <dimension ref="B1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
@@ -1120,142 +1037,142 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="2:18">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-    </row>
-    <row r="2" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-    </row>
-    <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-    </row>
-    <row r="4" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-    </row>
-    <row r="5" spans="2:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+    </row>
+    <row r="2" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+    </row>
+    <row r="3" spans="2:18" ht="15" customHeight="1">
+      <c r="B3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="2:18" ht="66">
       <c r="B5" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15.75">
       <c r="B6" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12">
@@ -1304,9 +1221,9 @@
         <v>32255</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="15.75">
       <c r="B7" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="12">
         <v>13602</v>
@@ -1355,9 +1272,9 @@
         <v>64339</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="15.75">
       <c r="B8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="12">
         <v>12684</v>
@@ -1406,9 +1323,9 @@
         <v>58573</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" ht="15.75">
       <c r="B9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="12">
         <v>714</v>
@@ -1457,9 +1374,9 @@
         <v>19859</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="15.75">
       <c r="B10" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="12">
         <v>10847</v>
@@ -1508,9 +1425,9 @@
         <v>220899</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="15.75">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="12">
         <v>15957</v>
@@ -1559,9 +1476,9 @@
         <v>359800</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="15.75">
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="12">
         <v>886</v>
@@ -1610,9 +1527,9 @@
         <v>39259</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="15.75">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="12">
         <v>1202</v>
@@ -1661,9 +1578,9 @@
         <v>51482</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="15.75">
       <c r="B14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="12">
         <v>226</v>
@@ -1712,9 +1629,9 @@
         <v>12264</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="15.75">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="12">
         <v>422</v>
@@ -1763,9 +1680,9 @@
         <v>26425</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="15.75">
       <c r="B16" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="12">
         <v>583</v>
@@ -1814,9 +1731,9 @@
         <v>37925</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="15.75">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="12">
         <v>571</v>
@@ -1865,9 +1782,9 @@
         <v>62821</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" ht="15.75">
       <c r="B18" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="12">
         <v>139</v>
@@ -1916,9 +1833,9 @@
         <v>11122</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="15.75">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="12">
         <v>230</v>
@@ -1967,9 +1884,9 @@
         <v>20876</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="15.75">
       <c r="B20" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="12">
         <v>58063</v>
@@ -2020,12 +1937,12 @@
         <v>1017899</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+    <row r="21" spans="2:18">
+      <c r="B21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -2041,7 +1958,7 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -2073,6 +1990,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="27160ef2-b1a0-4e0b-a979-9938934b2ceb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="313f4996-b919-4f00-b21c-15f2583e5308" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DCC8FD18B82734DA6D04F28797DC4A6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d6bdc30562d183d288a9000ae6c88d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="27160ef2-b1a0-4e0b-a979-9938934b2ceb" xmlns:ns3="313f4996-b919-4f00-b21c-15f2583e5308" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb1f178905c4cbe79baa28c8245f5f7a" ns2:_="" ns3:_="">
     <xsd:import namespace="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
@@ -2301,17 +2229,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="27160ef2-b1a0-4e0b-a979-9938934b2ceb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="313f4996-b919-4f00-b21c-15f2583e5308" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{574933D4-95EB-4BEE-AD59-F28C061FE9B0}">
   <ds:schemaRefs>
@@ -2321,6 +2238,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3F798B-C9FA-400F-826E-BC07FF1289E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
+    <ds:schemaRef ds:uri="313f4996-b919-4f00-b21c-15f2583e5308"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF50BBAA-4D28-438D-8C46-F0A6FAD005FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2337,15 +2265,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3F798B-C9FA-400F-826E-BC07FF1289E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
-    <ds:schemaRef ds:uri="313f4996-b919-4f00-b21c-15f2583e5308"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>